--- a/data/BD_positivos.xlsx
+++ b/data/BD_positivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Santos\Desktop\Fiebre_amarilla\dashboard_casos_fa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57319AAE-30E3-4C40-B705-258E0E82A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE2CB5A-4AEB-49A6-AE54-3CB968BFC732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EB8E509-046E-4356-A15B-D59DC7EF7CC8}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="437">
   <si>
     <t>CASO</t>
   </si>
@@ -1372,6 +1372,33 @@
   </si>
   <si>
     <t>LA ENSILLADA</t>
+  </si>
+  <si>
+    <t>XHAN</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>GUALTERO</t>
+  </si>
+  <si>
+    <t>PANDO LA SOLEDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/06/2025</t>
+  </si>
+  <si>
+    <t>INGRID</t>
+  </si>
+  <si>
+    <t>VANESA</t>
+  </si>
+  <si>
+    <t>PEREA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1725,6 +1752,31 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2795,10 +2847,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9086,6 +9138,94 @@
       </c>
       <c r="U98" s="53" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" s="60" customFormat="1">
+      <c r="A99" s="55">
+        <v>98</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="C99" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D99" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="E99" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="56">
+        <v>1128544741</v>
+      </c>
+      <c r="H99" s="56">
+        <v>19</v>
+      </c>
+      <c r="I99" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K99" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="L99" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="M99" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="N99" s="59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" s="60" customFormat="1">
+      <c r="A100" s="55">
+        <v>99</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D100" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="E100" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="F100" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="61">
+        <v>1024475463</v>
+      </c>
+      <c r="H100" s="61">
+        <v>20</v>
+      </c>
+      <c r="I100" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J100" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="K100" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="L100" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="M100" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N100" s="63" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
